--- a/TankWarGame/Map/map2.xlsx
+++ b/TankWarGame/Map/map2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Larry\Desktop\TankWar\TankWarGame\Map\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\ntut\Python_OOP\TankWar\TankWarGame\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1FBD35BE-4E05-4FE9-831B-FAA06CE2830C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D548F286-E9E2-4ED4-8D7D-23B07BE42CE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20">
     <font>
       <sz val="12"/>
@@ -189,7 +189,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,8 +399,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -515,6 +521,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -644,26 +665,32 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1020,16 +1047,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="AO7" sqref="AO7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="35" width="5" style="3" customWidth="1"/>
+    <col min="36" max="16384" width="9" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" ht="30" customHeight="1">
       <c r="A1" s="2">
         <v>6</v>
       </c>
@@ -1136,903 +1167,1531 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:35">
+    <row r="2" spans="1:35" ht="30" customHeight="1">
       <c r="A2" s="2">
         <v>6</v>
       </c>
-      <c r="B2" s="1">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4</v>
-      </c>
-      <c r="I2" s="3">
-        <v>3</v>
-      </c>
-      <c r="J2" s="3">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3">
-        <v>3</v>
-      </c>
-      <c r="L2" s="3">
-        <v>3</v>
-      </c>
+      <c r="B2" s="4">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4">
+        <v>4</v>
+      </c>
+      <c r="D2" s="4">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="5">
+        <v>3</v>
+      </c>
+      <c r="I2" s="5">
+        <v>3</v>
+      </c>
+      <c r="J2" s="5">
+        <v>3</v>
+      </c>
+      <c r="K2" s="5">
+        <v>3</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="1"/>
+      <c r="AB2" s="1"/>
+      <c r="AC2" s="1"/>
+      <c r="AD2" s="1"/>
+      <c r="AE2" s="1"/>
+      <c r="AF2" s="1"/>
+      <c r="AG2" s="1"/>
+      <c r="AH2" s="1"/>
       <c r="AI2" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:35">
+    <row r="3" spans="1:35" ht="30" customHeight="1">
       <c r="A3" s="2">
         <v>6</v>
       </c>
-      <c r="H3" s="1">
-        <v>4</v>
-      </c>
-      <c r="I3" s="1">
-        <v>4</v>
-      </c>
-      <c r="J3" s="1">
-        <v>4</v>
-      </c>
-      <c r="K3" s="1">
-        <v>4</v>
-      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="4">
+        <v>4</v>
+      </c>
+      <c r="I3" s="4">
+        <v>4</v>
+      </c>
+      <c r="J3" s="4">
+        <v>4</v>
+      </c>
+      <c r="K3" s="4">
+        <v>4</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="1"/>
+      <c r="AH3" s="1"/>
       <c r="AI3" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" ht="30" customHeight="1">
       <c r="A4" s="2">
         <v>6</v>
       </c>
-      <c r="H4" s="1">
-        <v>4</v>
-      </c>
-      <c r="I4" s="1">
-        <v>4</v>
-      </c>
-      <c r="J4" s="1">
-        <v>4</v>
-      </c>
-      <c r="K4" s="1">
-        <v>4</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>3</v>
-      </c>
-      <c r="R4" s="3">
-        <v>3</v>
-      </c>
-      <c r="V4" s="3">
-        <v>3</v>
-      </c>
-      <c r="W4" s="3">
-        <v>3</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>4</v>
-      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="4">
+        <v>4</v>
+      </c>
+      <c r="I4" s="4">
+        <v>4</v>
+      </c>
+      <c r="J4" s="4">
+        <v>4</v>
+      </c>
+      <c r="K4" s="4">
+        <v>4</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="5">
+        <v>3</v>
+      </c>
+      <c r="R4" s="5">
+        <v>3</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="5">
+        <v>3</v>
+      </c>
+      <c r="W4" s="5">
+        <v>3</v>
+      </c>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>4</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>4</v>
+      </c>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="1"/>
       <c r="AI4" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:35">
+    <row r="5" spans="1:35" ht="30" customHeight="1">
       <c r="A5" s="2">
         <v>6</v>
       </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
       <c r="D5" s="6"/>
-      <c r="H5" s="1">
-        <v>4</v>
-      </c>
-      <c r="I5" s="1">
-        <v>4</v>
-      </c>
-      <c r="L5" s="1">
-        <v>4</v>
-      </c>
-      <c r="M5" s="1">
-        <v>4</v>
-      </c>
-      <c r="N5" s="1">
-        <v>4</v>
-      </c>
-      <c r="V5" s="3">
-        <v>3</v>
-      </c>
-      <c r="W5" s="3">
-        <v>3</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE5" s="1">
-        <v>4</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="4">
+        <v>4</v>
+      </c>
+      <c r="I5" s="4">
+        <v>4</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="4">
+        <v>4</v>
+      </c>
+      <c r="M5" s="4">
+        <v>4</v>
+      </c>
+      <c r="N5" s="4">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="5">
+        <v>3</v>
+      </c>
+      <c r="W5" s="5">
+        <v>3</v>
+      </c>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>4</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>4</v>
+      </c>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="1"/>
       <c r="AI5" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" ht="30" customHeight="1">
       <c r="A6" s="2">
         <v>6</v>
       </c>
-      <c r="H6" s="1">
-        <v>4</v>
-      </c>
-      <c r="I6" s="1">
-        <v>4</v>
-      </c>
-      <c r="L6" s="1">
-        <v>4</v>
-      </c>
-      <c r="M6" s="1">
-        <v>4</v>
-      </c>
-      <c r="N6" s="1">
-        <v>4</v>
-      </c>
-      <c r="V6" s="3">
-        <v>3</v>
-      </c>
-      <c r="W6" s="3">
-        <v>3</v>
-      </c>
-      <c r="AB6" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC6" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD6" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE6" s="1">
-        <v>4</v>
-      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="4">
+        <v>4</v>
+      </c>
+      <c r="I6" s="4">
+        <v>4</v>
+      </c>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="4">
+        <v>4</v>
+      </c>
+      <c r="M6" s="4">
+        <v>4</v>
+      </c>
+      <c r="N6" s="4">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="5">
+        <v>3</v>
+      </c>
+      <c r="W6" s="5">
+        <v>3</v>
+      </c>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>4</v>
+      </c>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="1"/>
+      <c r="AH6" s="1"/>
       <c r="AI6" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" ht="30" customHeight="1">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="H7" s="1">
-        <v>4</v>
-      </c>
-      <c r="I7" s="1">
-        <v>4</v>
-      </c>
-      <c r="V7" s="3">
-        <v>3</v>
-      </c>
-      <c r="W7" s="3">
-        <v>3</v>
-      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="4">
+        <v>4</v>
+      </c>
+      <c r="I7" s="4">
+        <v>4</v>
+      </c>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="5">
+        <v>3</v>
+      </c>
+      <c r="W7" s="5">
+        <v>3</v>
+      </c>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="1"/>
       <c r="AI7" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" ht="30" customHeight="1">
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="H8" s="1">
-        <v>4</v>
-      </c>
-      <c r="I8" s="1">
-        <v>4</v>
-      </c>
-      <c r="R8" s="3">
-        <v>3</v>
-      </c>
-      <c r="S8" s="3">
-        <v>3</v>
-      </c>
-      <c r="V8" s="3">
-        <v>3</v>
-      </c>
-      <c r="W8" s="3">
-        <v>3</v>
-      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="4">
+        <v>4</v>
+      </c>
+      <c r="I8" s="4">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="5">
+        <v>3</v>
+      </c>
+      <c r="S8" s="5">
+        <v>3</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="5">
+        <v>3</v>
+      </c>
+      <c r="W8" s="5">
+        <v>3</v>
+      </c>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="1"/>
       <c r="AI8" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" ht="30" customHeight="1">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="H9" s="1">
-        <v>4</v>
-      </c>
-      <c r="I9" s="1">
-        <v>4</v>
-      </c>
-      <c r="R9" s="4">
-        <v>2</v>
-      </c>
-      <c r="S9" s="4">
-        <v>2</v>
-      </c>
-      <c r="V9" s="3">
-        <v>3</v>
-      </c>
-      <c r="W9" s="3">
-        <v>3</v>
-      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="4">
+        <v>4</v>
+      </c>
+      <c r="I9" s="4">
+        <v>4</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="7">
+        <v>2</v>
+      </c>
+      <c r="S9" s="7">
+        <v>2</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="5">
+        <v>3</v>
+      </c>
+      <c r="W9" s="5">
+        <v>3</v>
+      </c>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="1"/>
       <c r="AI9" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" ht="30" customHeight="1">
       <c r="A10" s="2">
         <v>6</v>
       </c>
-      <c r="F10" s="4">
-        <v>2</v>
-      </c>
-      <c r="G10" s="4">
-        <v>2</v>
-      </c>
-      <c r="J10" s="3">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3">
-        <v>3</v>
-      </c>
-      <c r="R10" s="4">
-        <v>2</v>
-      </c>
-      <c r="S10" s="4">
-        <v>2</v>
-      </c>
-      <c r="V10" s="3">
-        <v>3</v>
-      </c>
-      <c r="W10" s="3">
-        <v>3</v>
-      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="7">
+        <v>2</v>
+      </c>
+      <c r="G10" s="7">
+        <v>2</v>
+      </c>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="5">
+        <v>3</v>
+      </c>
+      <c r="K10" s="5">
+        <v>3</v>
+      </c>
+      <c r="L10" s="5">
+        <v>3</v>
+      </c>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="7">
+        <v>2</v>
+      </c>
+      <c r="S10" s="7">
+        <v>2</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="5">
+        <v>3</v>
+      </c>
+      <c r="W10" s="5">
+        <v>3</v>
+      </c>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="1"/>
       <c r="AI10" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" ht="30" customHeight="1">
       <c r="A11" s="2">
         <v>6</v>
       </c>
-      <c r="F11" s="4">
-        <v>2</v>
-      </c>
-      <c r="G11" s="4">
-        <v>2</v>
-      </c>
-      <c r="J11" s="3">
-        <v>3</v>
-      </c>
-      <c r="K11" s="3">
-        <v>3</v>
-      </c>
-      <c r="L11" s="3">
-        <v>3</v>
-      </c>
-      <c r="T11" s="1">
-        <v>4</v>
-      </c>
-      <c r="U11" s="1">
-        <v>4</v>
-      </c>
-      <c r="V11" s="3">
-        <v>3</v>
-      </c>
-      <c r="W11" s="3">
-        <v>3</v>
-      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="7">
+        <v>2</v>
+      </c>
+      <c r="G11" s="7">
+        <v>2</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="5">
+        <v>3</v>
+      </c>
+      <c r="K11" s="5">
+        <v>3</v>
+      </c>
+      <c r="L11" s="5">
+        <v>3</v>
+      </c>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="4">
+        <v>4</v>
+      </c>
+      <c r="U11" s="4">
+        <v>4</v>
+      </c>
+      <c r="V11" s="5">
+        <v>3</v>
+      </c>
+      <c r="W11" s="5">
+        <v>3</v>
+      </c>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="1"/>
       <c r="AI11" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" ht="30" customHeight="1">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="3">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3">
-        <v>3</v>
-      </c>
-      <c r="J12" s="3">
-        <v>3</v>
-      </c>
-      <c r="K12" s="3">
-        <v>3</v>
-      </c>
-      <c r="L12" s="3">
-        <v>3</v>
-      </c>
-      <c r="T12" s="1">
-        <v>4</v>
-      </c>
-      <c r="U12" s="1">
-        <v>4</v>
-      </c>
-      <c r="V12" s="3">
-        <v>3</v>
-      </c>
-      <c r="W12" s="3">
-        <v>3</v>
-      </c>
-      <c r="AF12" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG12" s="3">
-        <v>3</v>
-      </c>
-      <c r="AH12" s="3">
+      <c r="B12" s="5">
+        <v>3</v>
+      </c>
+      <c r="C12" s="5">
+        <v>3</v>
+      </c>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="5">
+        <v>3</v>
+      </c>
+      <c r="K12" s="5">
+        <v>3</v>
+      </c>
+      <c r="L12" s="5">
+        <v>3</v>
+      </c>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="4">
+        <v>4</v>
+      </c>
+      <c r="U12" s="4">
+        <v>4</v>
+      </c>
+      <c r="V12" s="5">
+        <v>3</v>
+      </c>
+      <c r="W12" s="5">
+        <v>3</v>
+      </c>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH12" s="5">
         <v>3</v>
       </c>
       <c r="AI12" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" ht="30" customHeight="1">
       <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="1">
         <v>5</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="1">
         <v>5</v>
       </c>
-      <c r="D13" s="3">
-        <v>3</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="5">
+        <v>3</v>
+      </c>
+      <c r="E13" s="8">
         <v>0</v>
       </c>
-      <c r="J13" s="3">
-        <v>3</v>
-      </c>
-      <c r="K13" s="3">
-        <v>3</v>
-      </c>
-      <c r="L13" s="3">
-        <v>3</v>
-      </c>
-      <c r="T13" s="3">
-        <v>3</v>
-      </c>
-      <c r="U13" s="3">
-        <v>3</v>
-      </c>
-      <c r="V13" s="3">
-        <v>3</v>
-      </c>
-      <c r="W13" s="3">
-        <v>3</v>
-      </c>
-      <c r="AD13" s="5">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="5">
+        <v>3</v>
+      </c>
+      <c r="K13" s="5">
+        <v>3</v>
+      </c>
+      <c r="L13" s="5">
+        <v>3</v>
+      </c>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="5">
+        <v>3</v>
+      </c>
+      <c r="U13" s="5">
+        <v>3</v>
+      </c>
+      <c r="V13" s="5">
+        <v>3</v>
+      </c>
+      <c r="W13" s="5">
+        <v>3</v>
+      </c>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
+      <c r="AD13" s="8">
         <v>1</v>
       </c>
-      <c r="AF13" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG13">
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG13" s="1">
         <v>5</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" s="1">
         <v>5</v>
       </c>
       <c r="AI13" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" ht="30" customHeight="1">
       <c r="A14" s="2">
         <v>6</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="1">
         <v>5</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>5</v>
       </c>
-      <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="J14" s="3">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
-        <v>3</v>
-      </c>
-      <c r="L14" s="3">
-        <v>3</v>
-      </c>
-      <c r="T14" s="3">
-        <v>3</v>
-      </c>
-      <c r="U14" s="3">
-        <v>3</v>
-      </c>
-      <c r="V14" s="3">
-        <v>3</v>
-      </c>
-      <c r="W14" s="3">
-        <v>3</v>
-      </c>
-      <c r="AF14" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG14">
+      <c r="D14" s="5">
+        <v>3</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="5">
+        <v>3</v>
+      </c>
+      <c r="K14" s="5">
+        <v>3</v>
+      </c>
+      <c r="L14" s="5">
+        <v>3</v>
+      </c>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="5">
+        <v>3</v>
+      </c>
+      <c r="U14" s="5">
+        <v>3</v>
+      </c>
+      <c r="V14" s="5">
+        <v>3</v>
+      </c>
+      <c r="W14" s="5">
+        <v>3</v>
+      </c>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG14" s="1">
         <v>5</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" s="1">
         <v>5</v>
       </c>
       <c r="AI14" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:35">
+    <row r="15" spans="1:35" ht="30" customHeight="1">
       <c r="A15" s="2">
         <v>6</v>
       </c>
-      <c r="B15" s="3">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="K15" s="4">
-        <v>2</v>
-      </c>
-      <c r="L15" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q15" s="1">
-        <v>4</v>
-      </c>
-      <c r="R15" s="1">
-        <v>4</v>
-      </c>
-      <c r="AF15" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG15" s="3">
-        <v>3</v>
-      </c>
-      <c r="AH15" s="3">
+      <c r="B15" s="5">
+        <v>3</v>
+      </c>
+      <c r="C15" s="5">
+        <v>3</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="7">
+        <v>2</v>
+      </c>
+      <c r="L15" s="7">
+        <v>2</v>
+      </c>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="4">
+        <v>4</v>
+      </c>
+      <c r="R15" s="4">
+        <v>4</v>
+      </c>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="5">
+        <v>3</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>3</v>
+      </c>
+      <c r="AH15" s="5">
         <v>3</v>
       </c>
       <c r="AI15" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:35">
+    <row r="16" spans="1:35" ht="30" customHeight="1">
       <c r="A16" s="2">
         <v>6</v>
       </c>
-      <c r="K16" s="4">
-        <v>2</v>
-      </c>
-      <c r="L16" s="4">
-        <v>2</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>4</v>
-      </c>
-      <c r="R16" s="1">
-        <v>4</v>
-      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="7">
+        <v>2</v>
+      </c>
+      <c r="L16" s="7">
+        <v>2</v>
+      </c>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="4">
+        <v>4</v>
+      </c>
+      <c r="R16" s="4">
+        <v>4</v>
+      </c>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="1"/>
       <c r="AI16" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:35">
+    <row r="17" spans="1:35" ht="30" customHeight="1">
       <c r="A17" s="2">
         <v>6</v>
       </c>
-      <c r="I17" s="1">
-        <v>4</v>
-      </c>
-      <c r="J17" s="1">
-        <v>4</v>
-      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="4">
+        <v>4</v>
+      </c>
+      <c r="J17" s="4">
+        <v>4</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="1"/>
       <c r="AI17" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:35">
+    <row r="18" spans="1:35" ht="30" customHeight="1">
       <c r="A18" s="2">
         <v>6</v>
       </c>
-      <c r="I18" s="1">
-        <v>4</v>
-      </c>
-      <c r="J18" s="1">
-        <v>4</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>4</v>
-      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="4">
+        <v>4</v>
+      </c>
+      <c r="J18" s="4">
+        <v>4</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA18" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="1"/>
       <c r="AI18" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:35">
+    <row r="19" spans="1:35" ht="30" customHeight="1">
       <c r="A19" s="2">
         <v>6</v>
       </c>
-      <c r="G19" s="1">
-        <v>4</v>
-      </c>
-      <c r="H19" s="1">
-        <v>4</v>
-      </c>
-      <c r="K19" s="3">
-        <v>3</v>
-      </c>
-      <c r="L19" s="3">
-        <v>3</v>
-      </c>
-      <c r="M19" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z19" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>4</v>
-      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="4">
+        <v>4</v>
+      </c>
+      <c r="H19" s="4">
+        <v>4</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="5">
+        <v>3</v>
+      </c>
+      <c r="L19" s="5">
+        <v>3</v>
+      </c>
+      <c r="M19" s="5">
+        <v>3</v>
+      </c>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA19" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="1"/>
       <c r="AI19" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:35">
+    <row r="20" spans="1:35" ht="30" customHeight="1">
       <c r="A20" s="2">
         <v>6</v>
       </c>
-      <c r="G20" s="1">
-        <v>4</v>
-      </c>
-      <c r="H20" s="1">
-        <v>4</v>
-      </c>
-      <c r="K20" s="3">
-        <v>3</v>
-      </c>
-      <c r="L20" s="3">
-        <v>3</v>
-      </c>
-      <c r="M20" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z20" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA20" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB20" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC20" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD20" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE20" s="1">
-        <v>4</v>
-      </c>
-      <c r="AF20" s="1">
-        <v>4</v>
-      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="4">
+        <v>4</v>
+      </c>
+      <c r="H20" s="4">
+        <v>4</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="5">
+        <v>3</v>
+      </c>
+      <c r="L20" s="5">
+        <v>3</v>
+      </c>
+      <c r="M20" s="5">
+        <v>3</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>4</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>4</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="1"/>
       <c r="AI20" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:35">
+    <row r="21" spans="1:35" ht="30" customHeight="1">
       <c r="A21" s="2">
         <v>6</v>
       </c>
-      <c r="E21" s="4">
-        <v>2</v>
-      </c>
-      <c r="F21" s="4">
-        <v>2</v>
-      </c>
-      <c r="G21" s="4">
-        <v>2</v>
-      </c>
-      <c r="H21" s="4">
-        <v>2</v>
-      </c>
-      <c r="K21" s="3">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3">
-        <v>3</v>
-      </c>
-      <c r="M21" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z21" s="1">
-        <v>4</v>
-      </c>
-      <c r="AA21" s="1">
-        <v>4</v>
-      </c>
-      <c r="AB21" s="1">
-        <v>4</v>
-      </c>
-      <c r="AC21" s="1">
-        <v>4</v>
-      </c>
-      <c r="AD21" s="1">
-        <v>4</v>
-      </c>
-      <c r="AE21" s="1">
-        <v>4</v>
-      </c>
-      <c r="AF21" s="1">
-        <v>4</v>
-      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="7">
+        <v>2</v>
+      </c>
+      <c r="F21" s="7">
+        <v>2</v>
+      </c>
+      <c r="G21" s="7">
+        <v>2</v>
+      </c>
+      <c r="H21" s="7">
+        <v>2</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="5">
+        <v>3</v>
+      </c>
+      <c r="L21" s="5">
+        <v>3</v>
+      </c>
+      <c r="M21" s="5">
+        <v>3</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="4">
+        <v>4</v>
+      </c>
+      <c r="AA21" s="4">
+        <v>4</v>
+      </c>
+      <c r="AB21" s="4">
+        <v>4</v>
+      </c>
+      <c r="AC21" s="4">
+        <v>4</v>
+      </c>
+      <c r="AD21" s="4">
+        <v>4</v>
+      </c>
+      <c r="AE21" s="4">
+        <v>4</v>
+      </c>
+      <c r="AF21" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="1"/>
       <c r="AI21" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:35">
+    <row r="22" spans="1:35" ht="30" customHeight="1">
       <c r="A22" s="2">
         <v>6</v>
       </c>
-      <c r="E22" s="4">
-        <v>2</v>
-      </c>
-      <c r="F22" s="4">
-        <v>2</v>
-      </c>
-      <c r="G22" s="4">
-        <v>2</v>
-      </c>
-      <c r="H22" s="4">
-        <v>2</v>
-      </c>
-      <c r="K22" s="3">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
-        <v>3</v>
-      </c>
-      <c r="M22" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z22" s="4">
-        <v>2</v>
-      </c>
-      <c r="AA22" s="4">
-        <v>2</v>
-      </c>
-      <c r="AB22" s="4">
-        <v>2</v>
-      </c>
-      <c r="AC22" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD22" s="4">
-        <v>2</v>
-      </c>
-      <c r="AE22" s="1">
-        <v>4</v>
-      </c>
-      <c r="AF22" s="1">
-        <v>4</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="7">
+        <v>2</v>
+      </c>
+      <c r="F22" s="7">
+        <v>2</v>
+      </c>
+      <c r="G22" s="7">
+        <v>2</v>
+      </c>
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="5">
+        <v>3</v>
+      </c>
+      <c r="L22" s="5">
+        <v>3</v>
+      </c>
+      <c r="M22" s="5">
+        <v>3</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA22" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC22" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD22" s="7">
+        <v>2</v>
+      </c>
+      <c r="AE22" s="4">
+        <v>4</v>
+      </c>
+      <c r="AF22" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG22" s="1"/>
+      <c r="AH22" s="1"/>
       <c r="AI22" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:35">
+    <row r="23" spans="1:35" ht="30" customHeight="1">
       <c r="A23" s="2">
         <v>6</v>
       </c>
-      <c r="C23" s="1">
-        <v>4</v>
-      </c>
-      <c r="D23" s="1">
-        <v>4</v>
-      </c>
-      <c r="E23" s="1">
-        <v>4</v>
-      </c>
-      <c r="F23" s="1">
-        <v>4</v>
-      </c>
-      <c r="G23" s="1">
-        <v>4</v>
-      </c>
-      <c r="K23" s="3">
-        <v>3</v>
-      </c>
-      <c r="L23" s="3">
-        <v>3</v>
-      </c>
-      <c r="M23" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z23" s="4">
-        <v>2</v>
-      </c>
-      <c r="AA23" s="4">
-        <v>2</v>
-      </c>
-      <c r="AB23" s="4">
-        <v>2</v>
-      </c>
-      <c r="AC23" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD23" s="4">
-        <v>2</v>
-      </c>
-      <c r="AE23" s="1">
-        <v>4</v>
-      </c>
-      <c r="AF23" s="1">
-        <v>4</v>
-      </c>
+      <c r="B23" s="1"/>
+      <c r="C23" s="4">
+        <v>4</v>
+      </c>
+      <c r="D23" s="4">
+        <v>4</v>
+      </c>
+      <c r="E23" s="4">
+        <v>4</v>
+      </c>
+      <c r="F23" s="4">
+        <v>4</v>
+      </c>
+      <c r="G23" s="4">
+        <v>4</v>
+      </c>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="5">
+        <v>3</v>
+      </c>
+      <c r="L23" s="5">
+        <v>3</v>
+      </c>
+      <c r="M23" s="5">
+        <v>3</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA23" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD23" s="7">
+        <v>2</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>4</v>
+      </c>
+      <c r="AF23" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG23" s="1"/>
+      <c r="AH23" s="1"/>
       <c r="AI23" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:35">
+    <row r="24" spans="1:35" ht="30" customHeight="1">
       <c r="A24" s="2">
         <v>6</v>
       </c>
-      <c r="C24" s="1">
-        <v>4</v>
-      </c>
-      <c r="K24" s="3">
-        <v>3</v>
-      </c>
-      <c r="L24" s="3">
-        <v>3</v>
-      </c>
-      <c r="M24" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z24" s="4">
-        <v>2</v>
-      </c>
-      <c r="AA24" s="4">
-        <v>2</v>
-      </c>
-      <c r="AB24" s="4">
-        <v>2</v>
-      </c>
-      <c r="AC24" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD24" s="4">
-        <v>2</v>
-      </c>
-      <c r="AE24" s="1">
-        <v>4</v>
-      </c>
-      <c r="AF24" s="1">
-        <v>4</v>
-      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="4">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="5">
+        <v>3</v>
+      </c>
+      <c r="L24" s="5">
+        <v>3</v>
+      </c>
+      <c r="M24" s="5">
+        <v>3</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA24" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC24" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD24" s="7">
+        <v>2</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>4</v>
+      </c>
+      <c r="AF24" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="1"/>
       <c r="AI24" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:35">
+    <row r="25" spans="1:35" ht="30" customHeight="1">
       <c r="A25" s="2">
         <v>6</v>
       </c>
-      <c r="C25" s="1">
-        <v>4</v>
-      </c>
-      <c r="K25" s="3">
-        <v>3</v>
-      </c>
-      <c r="L25" s="3">
-        <v>3</v>
-      </c>
-      <c r="M25" s="3">
-        <v>3</v>
-      </c>
-      <c r="Z25" s="4">
-        <v>2</v>
-      </c>
-      <c r="AA25" s="4">
-        <v>2</v>
-      </c>
-      <c r="AB25" s="4">
-        <v>2</v>
-      </c>
-      <c r="AC25" s="4">
-        <v>2</v>
-      </c>
-      <c r="AD25" s="4">
-        <v>2</v>
-      </c>
-      <c r="AE25" s="1">
-        <v>4</v>
-      </c>
-      <c r="AF25" s="1">
-        <v>4</v>
-      </c>
+      <c r="B25" s="1"/>
+      <c r="C25" s="4">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="5">
+        <v>3</v>
+      </c>
+      <c r="L25" s="5">
+        <v>3</v>
+      </c>
+      <c r="M25" s="5">
+        <v>3</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="7">
+        <v>2</v>
+      </c>
+      <c r="AA25" s="7">
+        <v>2</v>
+      </c>
+      <c r="AB25" s="7">
+        <v>2</v>
+      </c>
+      <c r="AC25" s="7">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="7">
+        <v>2</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>4</v>
+      </c>
+      <c r="AF25" s="4">
+        <v>4</v>
+      </c>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="1"/>
       <c r="AI25" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:35">
+    <row r="26" spans="1:35" ht="30" customHeight="1">
       <c r="A26" s="2">
         <v>6</v>
       </c>
-      <c r="B26" s="1">
-        <v>4</v>
-      </c>
-      <c r="C26" s="1">
-        <v>4</v>
-      </c>
-      <c r="K26" s="3">
-        <v>3</v>
-      </c>
-      <c r="L26" s="3">
-        <v>3</v>
-      </c>
-      <c r="M26" s="3">
-        <v>3</v>
-      </c>
+      <c r="B26" s="4">
+        <v>4</v>
+      </c>
+      <c r="C26" s="4">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="5">
+        <v>3</v>
+      </c>
+      <c r="L26" s="5">
+        <v>3</v>
+      </c>
+      <c r="M26" s="5">
+        <v>3</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1"/>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="1"/>
       <c r="AI26" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:35">
+    <row r="27" spans="1:35" ht="30" customHeight="1">
       <c r="A27" s="2">
         <v>6</v>
       </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1"/>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="1"/>
       <c r="AI27" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:35">
+    <row r="28" spans="1:35" ht="30" customHeight="1">
       <c r="A28" s="2">
         <v>6</v>
       </c>

--- a/TankWarGame/Map/map2.xlsx
+++ b/TankWarGame/Map/map2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Larry\Desktop\TankWar\TankWarGame\Map\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1FBD35BE-4E05-4FE9-831B-FAA06CE2830C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C152EEA0-7413-4AF3-ADC5-ADF014C8F245}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map2" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="20">
     <font>
       <sz val="12"/>
@@ -1020,16 +1020,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AI28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AJ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y23" sqref="Y23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:36">
       <c r="A1" s="2">
         <v>6</v>
       </c>
@@ -1135,8 +1135,11 @@
       <c r="AI1" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:35">
+      <c r="AJ1" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" s="2">
         <v>6</v>
       </c>
@@ -1161,11 +1164,11 @@
       <c r="L2" s="3">
         <v>3</v>
       </c>
-      <c r="AI2" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35">
+      <c r="AJ2" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36">
       <c r="A3" s="2">
         <v>6</v>
       </c>
@@ -1181,11 +1184,11 @@
       <c r="K3" s="1">
         <v>4</v>
       </c>
-      <c r="AI3" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35">
+      <c r="AJ3" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36">
       <c r="A4" s="2">
         <v>6</v>
       </c>
@@ -1213,9 +1216,6 @@
       <c r="W4" s="3">
         <v>3</v>
       </c>
-      <c r="AB4" s="1">
-        <v>4</v>
-      </c>
       <c r="AC4" s="1">
         <v>4</v>
       </c>
@@ -1225,11 +1225,14 @@
       <c r="AE4" s="1">
         <v>4</v>
       </c>
-      <c r="AI4" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35">
+      <c r="AF4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36">
       <c r="A5" s="2">
         <v>6</v>
       </c>
@@ -1255,9 +1258,6 @@
       <c r="W5" s="3">
         <v>3</v>
       </c>
-      <c r="AB5" s="1">
-        <v>4</v>
-      </c>
       <c r="AC5" s="1">
         <v>4</v>
       </c>
@@ -1267,11 +1267,14 @@
       <c r="AE5" s="1">
         <v>4</v>
       </c>
-      <c r="AI5" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35">
+      <c r="AF5" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -1296,9 +1299,6 @@
       <c r="W6" s="3">
         <v>3</v>
       </c>
-      <c r="AB6" s="1">
-        <v>4</v>
-      </c>
       <c r="AC6" s="1">
         <v>4</v>
       </c>
@@ -1308,11 +1308,14 @@
       <c r="AE6" s="1">
         <v>4</v>
       </c>
-      <c r="AI6" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35">
+      <c r="AF6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -1328,11 +1331,11 @@
       <c r="W7" s="3">
         <v>3</v>
       </c>
-      <c r="AI7" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:35">
+      <c r="AJ7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -1354,11 +1357,11 @@
       <c r="W8" s="3">
         <v>3</v>
       </c>
-      <c r="AI8" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:35">
+      <c r="AJ8" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -1380,11 +1383,11 @@
       <c r="W9" s="3">
         <v>3</v>
       </c>
-      <c r="AI9" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:35">
+      <c r="AJ9" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36">
       <c r="A10" s="2">
         <v>6</v>
       </c>
@@ -1415,11 +1418,11 @@
       <c r="W10" s="3">
         <v>3</v>
       </c>
-      <c r="AI10" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:35">
+      <c r="AJ10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36">
       <c r="A11" s="2">
         <v>6</v>
       </c>
@@ -1450,23 +1453,14 @@
       <c r="W11" s="3">
         <v>3</v>
       </c>
-      <c r="AI11" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:35">
+      <c r="AJ11" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36">
       <c r="A12" s="2">
         <v>6</v>
       </c>
-      <c r="B12" s="3">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3">
-        <v>3</v>
-      </c>
-      <c r="D12" s="3">
-        <v>3</v>
-      </c>
       <c r="J12" s="3">
         <v>3</v>
       </c>
@@ -1488,35 +1482,23 @@
       <c r="W12" s="3">
         <v>3</v>
       </c>
-      <c r="AF12" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG12" s="3">
-        <v>3</v>
-      </c>
-      <c r="AH12" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI12" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:35">
+      <c r="AJ12" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36">
       <c r="A13" s="2">
         <v>6</v>
       </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>5</v>
+      <c r="B13" s="3">
+        <v>3</v>
+      </c>
+      <c r="C13" s="3">
+        <v>3</v>
       </c>
       <c r="D13" s="3">
         <v>3</v>
       </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
       <c r="J13" s="3">
         <v>3</v>
       </c>
@@ -1538,23 +1520,20 @@
       <c r="W13" s="3">
         <v>3</v>
       </c>
-      <c r="AD13" s="5">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG13">
-        <v>5</v>
-      </c>
-      <c r="AH13">
-        <v>5</v>
-      </c>
-      <c r="AI13" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" spans="1:35">
+      <c r="AG13" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>3</v>
+      </c>
+      <c r="AJ13" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36">
       <c r="A14" s="2">
         <v>6</v>
       </c>
@@ -1567,6 +1546,9 @@
       <c r="D14" s="3">
         <v>3</v>
       </c>
+      <c r="E14" s="5">
+        <v>0</v>
+      </c>
       <c r="J14" s="3">
         <v>3</v>
       </c>
@@ -1588,28 +1570,31 @@
       <c r="W14" s="3">
         <v>3</v>
       </c>
-      <c r="AF14" s="3">
-        <v>3</v>
-      </c>
-      <c r="AG14">
-        <v>5</v>
+      <c r="AE14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>3</v>
       </c>
       <c r="AH14">
         <v>5</v>
       </c>
-      <c r="AI14" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="1:35">
+      <c r="AI14">
+        <v>5</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36">
       <c r="A15" s="2">
         <v>6</v>
       </c>
-      <c r="B15" s="3">
-        <v>3</v>
-      </c>
-      <c r="C15" s="3">
-        <v>3</v>
+      <c r="B15">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>5</v>
       </c>
       <c r="D15" s="3">
         <v>3</v>
@@ -1626,23 +1611,32 @@
       <c r="R15" s="1">
         <v>4</v>
       </c>
-      <c r="AF15" s="3">
-        <v>3</v>
-      </c>
       <c r="AG15" s="3">
         <v>3</v>
       </c>
-      <c r="AH15" s="3">
-        <v>3</v>
-      </c>
-      <c r="AI15" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" spans="1:35">
+      <c r="AH15">
+        <v>5</v>
+      </c>
+      <c r="AI15">
+        <v>5</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36">
       <c r="A16" s="2">
         <v>6</v>
       </c>
+      <c r="B16" s="3">
+        <v>3</v>
+      </c>
+      <c r="C16" s="3">
+        <v>3</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
       <c r="K16" s="4">
         <v>2</v>
       </c>
@@ -1655,11 +1649,20 @@
       <c r="R16" s="1">
         <v>4</v>
       </c>
-      <c r="AI16" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35">
+      <c r="AG16" s="3">
+        <v>3</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>3</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>3</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36">
       <c r="A17" s="2">
         <v>6</v>
       </c>
@@ -1669,11 +1672,11 @@
       <c r="J17" s="1">
         <v>4</v>
       </c>
-      <c r="AI17" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35">
+      <c r="AJ17" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36">
       <c r="A18" s="2">
         <v>6</v>
       </c>
@@ -1683,17 +1686,17 @@
       <c r="J18" s="1">
         <v>4</v>
       </c>
-      <c r="Z18" s="1">
-        <v>4</v>
-      </c>
       <c r="AA18" s="1">
         <v>4</v>
       </c>
-      <c r="AI18" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35">
+      <c r="AB18" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36">
       <c r="A19" s="2">
         <v>6</v>
       </c>
@@ -1712,17 +1715,17 @@
       <c r="M19" s="3">
         <v>3</v>
       </c>
-      <c r="Z19" s="1">
-        <v>4</v>
-      </c>
       <c r="AA19" s="1">
         <v>4</v>
       </c>
-      <c r="AI19" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35">
+      <c r="AB19" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:36">
       <c r="A20" s="2">
         <v>6</v>
       </c>
@@ -1741,9 +1744,6 @@
       <c r="M20" s="3">
         <v>3</v>
       </c>
-      <c r="Z20" s="1">
-        <v>4</v>
-      </c>
       <c r="AA20" s="1">
         <v>4</v>
       </c>
@@ -1762,11 +1762,14 @@
       <c r="AF20" s="1">
         <v>4</v>
       </c>
-      <c r="AI20" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35">
+      <c r="AG20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ20" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36">
       <c r="A21" s="2">
         <v>6</v>
       </c>
@@ -1791,9 +1794,6 @@
       <c r="M21" s="3">
         <v>3</v>
       </c>
-      <c r="Z21" s="1">
-        <v>4</v>
-      </c>
       <c r="AA21" s="1">
         <v>4</v>
       </c>
@@ -1812,11 +1812,14 @@
       <c r="AF21" s="1">
         <v>4</v>
       </c>
-      <c r="AI21" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35">
+      <c r="AG21" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ21" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:36">
       <c r="A22" s="2">
         <v>6</v>
       </c>
@@ -1841,9 +1844,6 @@
       <c r="M22" s="3">
         <v>3</v>
       </c>
-      <c r="Z22" s="4">
-        <v>2</v>
-      </c>
       <c r="AA22" s="4">
         <v>2</v>
       </c>
@@ -1856,17 +1856,20 @@
       <c r="AD22" s="4">
         <v>2</v>
       </c>
-      <c r="AE22" s="1">
-        <v>4</v>
+      <c r="AE22" s="4">
+        <v>2</v>
       </c>
       <c r="AF22" s="1">
         <v>4</v>
       </c>
-      <c r="AI22" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35">
+      <c r="AG22" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ22" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:36">
       <c r="A23" s="2">
         <v>6</v>
       </c>
@@ -1894,9 +1897,6 @@
       <c r="M23" s="3">
         <v>3</v>
       </c>
-      <c r="Z23" s="4">
-        <v>2</v>
-      </c>
       <c r="AA23" s="4">
         <v>2</v>
       </c>
@@ -1909,17 +1909,20 @@
       <c r="AD23" s="4">
         <v>2</v>
       </c>
-      <c r="AE23" s="1">
-        <v>4</v>
+      <c r="AE23" s="4">
+        <v>2</v>
       </c>
       <c r="AF23" s="1">
         <v>4</v>
       </c>
-      <c r="AI23" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35">
+      <c r="AG23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ23" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36">
       <c r="A24" s="2">
         <v>6</v>
       </c>
@@ -1935,9 +1938,6 @@
       <c r="M24" s="3">
         <v>3</v>
       </c>
-      <c r="Z24" s="4">
-        <v>2</v>
-      </c>
       <c r="AA24" s="4">
         <v>2</v>
       </c>
@@ -1950,17 +1950,20 @@
       <c r="AD24" s="4">
         <v>2</v>
       </c>
-      <c r="AE24" s="1">
-        <v>4</v>
+      <c r="AE24" s="4">
+        <v>2</v>
       </c>
       <c r="AF24" s="1">
         <v>4</v>
       </c>
-      <c r="AI24" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35">
+      <c r="AG24" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ24" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:36">
       <c r="A25" s="2">
         <v>6</v>
       </c>
@@ -1976,9 +1979,6 @@
       <c r="M25" s="3">
         <v>3</v>
       </c>
-      <c r="Z25" s="4">
-        <v>2</v>
-      </c>
       <c r="AA25" s="4">
         <v>2</v>
       </c>
@@ -1991,17 +1991,20 @@
       <c r="AD25" s="4">
         <v>2</v>
       </c>
-      <c r="AE25" s="1">
-        <v>4</v>
+      <c r="AE25" s="4">
+        <v>2</v>
       </c>
       <c r="AF25" s="1">
         <v>4</v>
       </c>
-      <c r="AI25" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35">
+      <c r="AG25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ25" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36">
       <c r="A26" s="2">
         <v>6</v>
       </c>
@@ -2020,19 +2023,19 @@
       <c r="M26" s="3">
         <v>3</v>
       </c>
-      <c r="AI26" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35">
+      <c r="AJ26" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:36">
       <c r="A27" s="2">
         <v>6</v>
       </c>
-      <c r="AI27" s="2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35">
+      <c r="AJ27" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:36">
       <c r="A28" s="2">
         <v>6</v>
       </c>
@@ -2136,6 +2139,9 @@
         <v>6</v>
       </c>
       <c r="AI28" s="2">
+        <v>6</v>
+      </c>
+      <c r="AJ28" s="2">
         <v>6</v>
       </c>
     </row>
